--- a/APM-XLS-MATRIX-MMM-SolutionProvider=COMPARISON=CapabiltyMatrix.xlsx
+++ b/APM-XLS-MATRIX-MMM-SolutionProvider=COMPARISON=CapabiltyMatrix.xlsx
@@ -582,7 +582,7 @@
     <t xml:space="preserve"> EDEN SPACE Parallel COPY Collector</t>
   </si>
   <si>
-    <t>POPULATE ON 10/23 9am</t>
+    <t>POPULATE ON 10/23 9am (shivacharan)</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:U125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
